--- a/02_MasterWifoMannheim/04_Graph/00_Archive/SkillCourseWeights_Master.xlsx
+++ b/02_MasterWifoMannheim/04_Graph/00_Archive/SkillCourseWeights_Master.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="6">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
@@ -794,12 +794,12 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.02660300769646233</v>
+        <v>0.0263246859004188</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22">
@@ -835,7 +835,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.02892754234955127</v>
+        <v>0.02853490522422561</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.02462427158680812</v>
+        <v>0.02440569395017795</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -866,12 +866,12 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.1862210538752363</v>
+        <v>0.1836517857142857</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.1284283130174044</v>
+        <v>0.1266564039408867</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.2128240615716986</v>
+        <v>0.2099948979591837</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.07705698781044261</v>
+        <v>0.07601108374384237</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.7448842155009453</v>
+        <v>0.7356071428571429</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="34">
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45">
@@ -1280,12 +1280,12 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.03054582490470173</v>
+        <v>0.02916555823720004</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.01546637113268504</v>
+        <v>0.01466171369312393</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1316,12 +1316,12 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.007786885785517171</v>
+        <v>0.00686450592915743</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1334,12 +1334,12 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.01704210482686411</v>
+        <v>0.01617007106111634</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.006047823567508607</v>
+        <v>0.006059147593959759</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1370,12 +1370,12 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>0.0002142857142857144</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54">
@@ -1406,12 +1406,12 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.02244461420932009</v>
+        <v>0.02249093973872732</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1424,12 +1424,12 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.1594835041645178</v>
+        <v>0.1579011758030996</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1442,12 +1442,12 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.2515835129695878</v>
+        <v>0.2484944259304037</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.8668597716229574</v>
+        <v>0.8582889221800734</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.5541626235301508</v>
+        <v>0.55031592744238</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1496,12 +1496,12 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.5755696588902618</v>
+        <v>0.5738073955180485</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1514,12 +1514,12 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.5978630987246368</v>
+        <v>0.5866604803665681</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.4287117243425643</v>
+        <v>0.4240768216143234</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1550,12 +1550,12 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.304443797132723</v>
+        <v>1.294469573576552</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.5039609367366397</v>
+        <v>0.4992018852305271</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1586,12 +1586,12 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.8892115511984283</v>
+        <v>0.882925388842998</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.2126336775696249</v>
+        <v>0.2041751403368084</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.03141295569284807</v>
+        <v>0.03077291963296946</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.8249513618677042</v>
+        <v>0.8005952380952379</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.3799009498608088</v>
+        <v>0.3533763126312435</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1712,12 +1712,12 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.4479055001780759</v>
+        <v>0.4169596237627686</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1730,12 +1730,12 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.5769294546325903</v>
+        <v>0.5426356597139903</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.2784554722121957</v>
+        <v>0.250522456856382</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.2665153071546441</v>
+        <v>0.2369785514530157</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1784,12 +1784,12 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.5525609485717193</v>
+        <v>0.5147672545753674</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.4695320828690564</v>
+        <v>0.4447370586622687</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1820,12 +1820,12 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.6414527600689431</v>
+        <v>0.6055841529270092</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.4941507738098013</v>
+        <v>0.4603596797074667</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0</v>
+        <v>0.0002857142857142857</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>0.0008333333333333336</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1892,12 +1892,12 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>0.0004272727272727276</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.02127714807781191</v>
+        <v>0.0223569968391397</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1928,12 +1928,12 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.07741243863142967</v>
+        <v>0.08087625229517649</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.002945870697349987</v>
+        <v>0.003410869600296913</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.002195436173134627</v>
+        <v>0.002158297615729815</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1982,12 +1982,12 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.001790321539773541</v>
+        <v>0.002169939510749746</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2000,12 +2000,12 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.02164574555878903</v>
+        <v>0.02241030271522514</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.0082269537422927</v>
+        <v>0.008776866334855981</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0</v>
+        <v>0.0004482758620689657</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.002890595588104717</v>
+        <v>0.003596325348407593</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2072,12 +2072,12 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.007270553491624493</v>
+        <v>0.007862632314776978</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.001010327652562261</v>
+        <v>0.001794758538650744</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2108,12 +2108,12 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.005727795707315892</v>
+        <v>0.006723703554120446</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2126,12 +2126,12 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.04525928616837707</v>
+        <v>0.04582760264698586</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
+        <v>0.001181818181818182</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>0.001285714285714286</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>0.00125</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.1727660285881467</v>
+        <v>0.1663141930319756</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.009423601559353454</v>
+        <v>0.01025819590918383</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2234,12 +2234,12 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.007321355115472761</v>
+        <v>0.008374072977208505</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.00889021692593121</v>
+        <v>0.009007802900896039</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0</v>
+        <v>0.0003333333333333333</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
+        <v>0.0006666666666666666</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>0.0003888888888888889</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0</v>
+        <v>0.0002222222222222222</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.1727660285881467</v>
+        <v>0.1663141930319756</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0</v>
+        <v>0.00025</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.002056738435573175</v>
+        <v>0.002479930869428282</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.01000922651403425</v>
+        <v>0.01048847931511006</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2540,12 +2540,12 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.004319150714703667</v>
+        <v>0.00464086564637913</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2558,12 +2558,12 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0</v>
+        <v>0.0003191489361702128</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.003525837318125443</v>
+        <v>0.003761514143509707</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.0176478467484288</v>
+        <v>0.0181266974795241</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2630,12 +2630,12 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0</v>
+        <v>0.00125</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.006910641143525868</v>
+        <v>0.007092567721279025</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.0838272720550368</v>
+        <v>0.08271889443526922</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.04978521478521478</v>
+        <v>0.04974369624501782</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.1722776250714873</v>
+        <v>0.1713166479833768</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2720,12 +2720,12 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.1126705920703877</v>
+        <v>0.1101969087897858</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2738,12 +2738,12 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.1180707528496051</v>
+        <v>0.1163177097722384</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.06931120315088347</v>
+        <v>0.06797386641198336</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2774,12 +2774,12 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.09974303997034006</v>
+        <v>0.09777689178249933</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.1323040216448659</v>
+        <v>0.1291471758773982</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2810,12 +2810,12 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.1912974900081921</v>
+        <v>0.1871443425500821</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.2514878098787725</v>
+        <v>0.2454209595181521</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.2225229019070176</v>
+        <v>0.2161877198061022</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.1107686320647801</v>
+        <v>0.1082278281437504</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.165358916150264</v>
+        <v>0.1618515984024392</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.2530996907343309</v>
+        <v>0.2481330372586051</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.2509090909090909</v>
+        <v>0.251</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.5829885057471265</v>
+        <v>0.5830996168582375</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.1337984762340167</v>
+        <v>0.1325001755498938</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.1007923699483092</v>
+        <v>0.1021425562478463</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3566,12 +3566,12 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.1948318333181007</v>
+        <v>0.2050074334559277</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3584,12 +3584,12 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.02098555396370583</v>
+        <v>0.02082364341085272</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.04781537067466793</v>
+        <v>0.04741411374994187</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.08394221585482332</v>
+        <v>0.08296124031007752</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.08375270358757014</v>
+        <v>0.08242323465697329</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.07415925737162349</v>
+        <v>0.07471195255548536</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="186">
@@ -3805,7 +3805,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.08394221585482332</v>
+        <v>0.08346124031007753</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.002126868229809407</v>
+        <v>0.00235977087464199</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.07785793465396275</v>
+        <v>0.08089571000506317</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3872,12 +3872,12 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.05827063204419421</v>
+        <v>0.06202781069483729</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.06426862110217173</v>
+        <v>0.06514755354896803</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.02263448985276936</v>
+        <v>0.025392648571519</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.06001413398662934</v>
+        <v>0.06161865628624161</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.05794388399662306</v>
+        <v>0.06099651979413565</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3980,12 +3980,12 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.1372652277081837</v>
+        <v>0.1394116194886607</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.3535151747983093</v>
+        <v>0.3553756752585273</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.02250227727673256</v>
+        <v>0.02410889699757041</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.0946916859882044</v>
+        <v>0.09801528430348087</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.01637020106661367</v>
+        <v>0.02125268373245255</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0</v>
+        <v>0.000625</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.007488935406698581</v>
+        <v>0.007840084090397176</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.09621626369947209</v>
+        <v>0.0969298823399056</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -4142,12 +4142,12 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.05284449726793048</v>
+        <v>0.05219128243085715</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.1766612466765566</v>
+        <v>0.1760511921030591</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.01880626944598149</v>
+        <v>0.01849072909080898</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.0470413687665473</v>
+        <v>0.04738909294107738</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -4250,12 +4250,12 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.08371017471736876</v>
+        <v>0.08241011042097991</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.2659509553530218</v>
+        <v>0.2640220932370886</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1.087586955446267</v>
+        <v>1.084507031595775</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.2316838292384474</v>
+        <v>0.2303798417608924</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0</v>
+        <v>0.0003218390804597702</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -4412,12 +4412,12 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0</v>
+        <v>0.0006000000000000001</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0</v>
+        <v>0.0001454545454545455</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="225">
@@ -4489,7 +4489,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.04824579693873231</v>
+        <v>0.04652986981462318</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -4502,12 +4502,12 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.1052977006915476</v>
+        <v>0.1034537155634224</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.0534363792300718</v>
+        <v>0.05220392765978416</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.06676704562737489</v>
+        <v>0.0654938982134413</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.06954049351858656</v>
+        <v>0.06780949489971913</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.08052057144257391</v>
+        <v>0.07858783619967478</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.1305323331873541</v>
+        <v>0.1290236924813349</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.03921456401424052</v>
+        <v>0.03835121892841303</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.07189336735944095</v>
+        <v>0.0700248537497096</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.06100043291104081</v>
+        <v>0.05731254267833383</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4664,12 +4664,12 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.05822768596053896</v>
+        <v>0.05676393113612844</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.05360097211413941</v>
+        <v>0.05249190279564147</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.2606060606060605</v>
+        <v>0.2924233052944087</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4736,12 +4736,12 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.005227272727272721</v>
+        <v>0.007122093023255814</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.2359307359307358</v>
+        <v>0.2627783275606136</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
